--- a/branches/master/StructureDefinition-hepainformatics-hepatitis-case.xlsx
+++ b/branches/master/StructureDefinition-hepainformatics-hepatitis-case.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T10:37:53+00:00</t>
+    <t>2022-03-09T10:52:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hepainformatics-hepatitis-case.xlsx
+++ b/branches/master/StructureDefinition-hepainformatics-hepatitis-case.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T10:52:04+00:00</t>
+    <t>2022-03-09T10:53:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
